--- a/Выплавка сплавов/Сплавы.xlsx
+++ b/Выплавка сплавов/Сплавы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Documents\Игры\Stationeers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Documents\Игры\Stationeers\Выплавка сплавов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB655F-8324-4E79-AAA1-5221F3BAD5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327488D-E774-4046-B851-05CE52099C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1890" windowWidth="19650" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="2325" windowWidth="13905" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Сталь</t>
   </si>
@@ -95,6 +95,108 @@
   </si>
   <si>
     <t>Кобальт</t>
+  </si>
+  <si>
+    <t>MinT</t>
+  </si>
+  <si>
+    <t>MinP</t>
+  </si>
+  <si>
+    <t>MaxT</t>
+  </si>
+  <si>
+    <t>MaxP</t>
+  </si>
+  <si>
+    <t>Слиток</t>
+  </si>
+  <si>
+    <t>Кодовое обозначение</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Electrum</t>
+  </si>
+  <si>
+    <t>Invar</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Constantan</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>02000</t>
+  </si>
+  <si>
+    <t>01000</t>
+  </si>
+  <si>
+    <t>00800</t>
+  </si>
+  <si>
+    <t>02400</t>
   </si>
 </sst>
 </file>
@@ -148,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,12 +267,152 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -191,106 +433,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,19 +458,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A6EAA08-43F3-49C0-BD22-FC0BA5812CA6}" name="Таблица5" displayName="Таблица5" ref="B2:L13" headerRowCount="0" headerRowDxfId="22" dataDxfId="23" headerRowCellStyle="Гиперссылка">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A305C133-EE72-4AF4-8D1A-65E15C881CF5}" name="Таблица1" displayName="Таблица1" ref="A2:F23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:F23" xr:uid="{A305C133-EE72-4AF4-8D1A-65E15C881CF5}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1037F3B2-631C-4521-BBCA-FB0F84397A44}" name="Слиток"/>
+    <tableColumn id="2" xr3:uid="{121F5A14-8DB6-43C9-90F7-B45881F8139F}" name="MinT" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9A75C167-96E6-444D-AB4C-92D37D41E90C}" name="MinP" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D63527CF-A983-4F29-80AA-50A4F83BEE4D}" name="MaxT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{39851A1D-EA27-4B32-B3D6-03AE70A8D8CB}" name="MaxP" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{16FA09ED-F1DF-47E1-8EA7-444FDFC96C18}" name="Кодовое обозначение" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A6EAA08-43F3-49C0-BD22-FC0BA5812CA6}" name="Таблица5" displayName="Таблица5" ref="B2:L13" headerRowCount="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="Гиперссылка">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DA2C49AF-A27F-4593-A04E-830579FBF86D}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="11" dataDxfId="34" totalsRowDxfId="0" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="2" xr3:uid="{40833901-98ED-4010-AE71-E9F10FEFE91E}" name="Столбец2" headerRowDxfId="12" dataDxfId="33" totalsRowDxfId="1" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{D0D651F5-AEF1-423D-9655-32A9A34BB112}" name="Столбец3" headerRowDxfId="13" dataDxfId="32" totalsRowDxfId="2" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="4" xr3:uid="{E883111A-B154-4538-845F-C1CA6E50082A}" name="Столбец4" headerRowDxfId="14" dataDxfId="31" totalsRowDxfId="3" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="5" xr3:uid="{177F63E3-BDBE-49A8-9FCB-F930AF740D9A}" name="Столбец5" headerRowDxfId="15" dataDxfId="30" totalsRowDxfId="4" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="6" xr3:uid="{7FE847B1-FEE7-4D67-BBAE-E6D972649498}" name="Столбец6" headerRowDxfId="16" dataDxfId="29" totalsRowDxfId="5" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="7" xr3:uid="{B7E2C2AF-1931-4D85-BFF3-4AC91D6290C6}" name="Столбец7" headerRowDxfId="17" dataDxfId="28" totalsRowDxfId="6" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="8" xr3:uid="{3A1DEB50-6C3B-4F84-B17B-0F79F87C5F63}" name="Столбец8" headerRowDxfId="18" dataDxfId="27" totalsRowDxfId="7" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="9" xr3:uid="{87110D93-73FB-4863-B043-20F14ABC7FA5}" name="Столбец9" headerRowDxfId="19" dataDxfId="26" totalsRowDxfId="8" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="10" xr3:uid="{0F269E5E-91AB-4836-936D-CA30025DC13A}" name="Столбец10" headerRowDxfId="20" dataDxfId="25" totalsRowDxfId="9" headerRowCellStyle="Гиперссылка"/>
-    <tableColumn id="11" xr3:uid="{1A1DB8DF-7816-45A4-BE1B-C5B9B3622608}" name="Столбец11" totalsRowFunction="count" headerRowDxfId="21" dataDxfId="24" totalsRowDxfId="10" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="1" xr3:uid="{DA2C49AF-A27F-4593-A04E-830579FBF86D}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{40833901-98ED-4010-AE71-E9F10FEFE91E}" name="Столбец2" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{D0D651F5-AEF1-423D-9655-32A9A34BB112}" name="Столбец3" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="4" xr3:uid="{E883111A-B154-4538-845F-C1CA6E50082A}" name="Столбец4" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="5" xr3:uid="{177F63E3-BDBE-49A8-9FCB-F930AF740D9A}" name="Столбец5" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="6" xr3:uid="{7FE847B1-FEE7-4D67-BBAE-E6D972649498}" name="Столбец6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="7" xr3:uid="{B7E2C2AF-1931-4D85-BFF3-4AC91D6290C6}" name="Столбец7" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="8" xr3:uid="{3A1DEB50-6C3B-4F84-B17B-0F79F87C5F63}" name="Столбец8" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="9" xr3:uid="{87110D93-73FB-4863-B043-20F14ABC7FA5}" name="Столбец9" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="10" xr3:uid="{0F269E5E-91AB-4836-936D-CA30025DC13A}" name="Столбец10" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9" headerRowCellStyle="Гиперссылка"/>
+    <tableColumn id="11" xr3:uid="{1A1DB8DF-7816-45A4-BE1B-C5B9B3622608}" name="Столбец11" totalsRowFunction="count" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6" headerRowCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,13 +754,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="25.7109375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10">
+        <v>900</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>_xlfn.CONCAT(B3,C3,D3,E3)</f>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f t="shared" ref="F4:F20" si="0">_xlfn.CONCAT(B4,C4,D4,E4)</f>
+        <v>80000100150002000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60000100150002000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60000100150002000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60000100150002000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>40000100150002000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>80000100150002000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90001000150002000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60000800150002400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>120018000150020000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>100020000150025000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3500100055002000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10">
+        <v>900</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10">
+        <v>900</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10">
+        <v>900</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10">
+        <v>900</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10">
+        <v>900</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10">
+        <v>900</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>90000100150002000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -601,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF03141-E0F8-4B28-BD3D-01C7C6A0A3F6}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
